--- a/BOM-nixie-v3.xlsx
+++ b/BOM-nixie-v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FBB4E-2127-47FD-8DF9-12A76D11B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A16973-E62F-4476-BA85-54BE540F2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25620" yWindow="8310" windowWidth="23010" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20231219" sheetId="2" r:id="rId1"/>
@@ -480,12 +480,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.9453125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -520,7 +520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -574,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -592,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -610,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -628,25 +628,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>2.89</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>5.78</v>
+        <v>17.34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -679,13 +679,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="3">
         <f>SUM(D2:D11)</f>
-        <v>206.73</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.55000000000000004">
+        <v>218.29</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.3">
       <c r="K18">
         <v>72.39</v>
       </c>
@@ -693,7 +693,7 @@
         <v>90.17</v>
       </c>
     </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="11:13" x14ac:dyDescent="0.3">
       <c r="K19">
         <v>51.680928999999999</v>
       </c>
